--- a/xlsx/学校_intext.xlsx
+++ b/xlsx/学校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t>学校</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>政策_政策_政治_学校</t>
@@ -35,61 +35,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B1%B1%E5%8D%80_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>松山區 (臺灣)</t>
+    <t>松山区 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%89%E5%8D%80_(%E8%87%BA%E5%8C%97%E5%B8%82)</t>
   </si>
   <si>
-    <t>大安區 (臺北市)</t>
+    <t>大安区 (台北市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82%E7%AB%8B%E4%BB%81%E6%84%9B%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺北市立仁愛國民中學</t>
+    <t>台北市立仁爱国民中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82%E7%AB%8B%E5%A4%A7%E5%AE%89%E5%9C%8B%E6%B0%91%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺北市立大安國民中學</t>
+    <t>台北市立大安国民中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>學院</t>
+    <t>学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>義務教育</t>
+    <t>义务教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>小學</t>
+    <t>小学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>中學</t>
+    <t>中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>專科學校</t>
+    <t>专科学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E5%85%92%E5%9C%92</t>
   </si>
   <si>
-    <t>幼兒園</t>
+    <t>幼儿园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%A8%9A%E5%9C%92</t>
   </si>
   <si>
-    <t>幼稚園</t>
+    <t>幼稚园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E7%AB%A5</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>職業學校</t>
+    <t>职业学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>神學院</t>
+    <t>神学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>另類教育</t>
+    <t>另类教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%AD%A6%E6%A0%A1</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>伊斯蘭學校</t>
+    <t>伊斯兰学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%A8%93</t>
   </si>
   <si>
-    <t>軍訓</t>
+    <t>军训</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>商學院</t>
+    <t>商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%AE%B6%E8%87%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>在家自學</t>
+    <t>在家自学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>線上學習</t>
+    <t>线上学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>太學</t>
+    <t>太学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>統治階級</t>
+    <t>统治阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E6%A0%BC%E6%95%99%E8%82%B2</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80</t>
   </si>
   <si>
-    <t>閱讀</t>
+    <t>阅读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E4%BD%9C</t>
   </si>
   <si>
-    <t>寫作</t>
+    <t>写作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -305,15 +305,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%A6</t>
   </si>
   <si>
-    <t>小学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%A6</t>
   </si>
   <si>
-    <t>中学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%B4%9A%E4%B8%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>高級中學</t>
+    <t>高级中学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%BD%A6</t>
@@ -353,15 +347,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
@@ -383,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E9%AB%94%E5%88%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>威權體制教育</t>
+    <t>威权体制教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>民主學校</t>
+    <t>民主学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>倫理</t>
+    <t>伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7</t>
@@ -413,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%A7%80</t>
   </si>
   <si>
-    <t>價值觀</t>
+    <t>价值观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%A4</t>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E5%A0%82</t>
   </si>
   <si>
-    <t>禮堂</t>
+    <t>礼堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%BF%AE%E5%AE%A4</t>
@@ -443,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>體育館</t>
+    <t>体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E5%A0%B4</t>
   </si>
   <si>
-    <t>操場</t>
+    <t>操场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E5%AE%A4</t>
   </si>
   <si>
-    <t>電腦室</t>
+    <t>电脑室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -479,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%AD%B0%E5%AE%A4</t>
   </si>
   <si>
-    <t>會議室</t>
+    <t>会议室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E5%B7%A5</t>
@@ -509,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>花園</t>
+    <t>花园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E7%AD%89%E6%95%99%E8%82%B2</t>
@@ -527,13 +515,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B2%E7%A8%8B</t>
   </si>
   <si>
-    <t>課程</t>
+    <t>课程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E7%BF%92%E7%8F%AD</t>
   </si>
   <si>
-    <t>補習班</t>
+    <t>补习班</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%95%99%E8%82%B2</t>
@@ -545,9 +533,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>私立學校</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E5%AE%BF%E5%AD%A6%E6%A0%A1</t>
   </si>
   <si>
@@ -575,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%A0%A1</t>
   </si>
   <si>
-    <t>鄉校</t>
+    <t>乡校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E6%A0%A1</t>
@@ -641,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>俄羅斯教育</t>
+    <t>俄罗斯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -653,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>藝術教育</t>
+    <t>艺术教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -665,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>語言教育</t>
+    <t>语言教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
@@ -701,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>閱讀教育</t>
+    <t>阅读教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
@@ -737,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>另類學校</t>
+    <t>另类学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%8F%B2</t>
@@ -755,19 +740,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%B8%BB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>自主學習</t>
+    <t>自主学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>終身學習</t>
+    <t>终身学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E8%BA%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>終身教育</t>
+    <t>终身教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%94%B9%E9%9D%A9</t>
@@ -785,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
+    <t>教育哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>目錄</t>
+    <t>目录</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_education</t>
@@ -821,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E8%AF%84%E4%BC%B0</t>
@@ -905,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>商業教育</t>
+    <t>商业教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chemistry_education</t>
@@ -917,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>設計教育</t>
+    <t>设计教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economics_education</t>
@@ -935,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>環境教育</t>
+    <t>环境教育</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Euthenics</t>
@@ -965,9 +950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%AE%AD</t>
   </si>
   <si>
-    <t>军训</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Nurse_education</t>
   </si>
   <si>
@@ -983,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>哲學教育</t>
+    <t>哲学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2</t>
@@ -1025,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>中文維基</t>
+    <t>中文维基</t>
   </si>
   <si>
     <t>https://zh.wikiversity.org/wiki/Education</t>
@@ -1043,25 +1025,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%9A%8E%E6%AE%B5</t>
   </si>
   <si>
-    <t>教育階段</t>
+    <t>教育阶段</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%89%8D%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>學前教育</t>
+    <t>学前教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>小學教育</t>
+    <t>小学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中學教育</t>
+    <t>中学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%9C%9F%E6%95%99%E8%82%B2</t>
@@ -1097,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1121,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%95%99%E8%82%B2</t>
@@ -1133,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>亞塞拜然教育</t>
+    <t>亚塞拜然教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%95%99%E8%82%B2</t>
@@ -1145,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>蒙古國教育</t>
+    <t>蒙古国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E6%95%99%E8%82%B2</t>
@@ -1169,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>朝鮮教育</t>
+    <t>朝鲜教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>吉爾吉斯斯坦教育</t>
+    <t>吉尔吉斯斯坦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E6%95%99%E8%82%B2</t>
@@ -1187,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬來西亞教育</t>
+    <t>马来西亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>馬爾地夫教育</t>
+    <t>马尔地夫教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>尼泊爾教育</t>
+    <t>尼泊尔教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E6%95%99%E8%82%B2</t>
@@ -1211,13 +1193,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>卡達教育</t>
+    <t>卡达教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯教育</t>
+    <t>沙乌地阿拉伯教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%95%99%E8%82%B2</t>
@@ -1229,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>敘利亞教育</t>
+    <t>叙利亚教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>泰國教育</t>
+    <t>泰国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E6%95%99%E8%82%B2</t>
@@ -1247,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%AF%E9%85%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>阿聯酋教育</t>
+    <t>阿联酋教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%95%99%E8%82%B2</t>
@@ -1265,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>中華民國教育</t>
+    <t>中华民国教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>臺灣教育</t>
+    <t>台湾教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
@@ -1283,37 +1265,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>澳門教育</t>
+    <t>澳门教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E7%8F%BE%E7%8B%80</t>
   </si>
   <si>
-    <t>台海現狀</t>
+    <t>台海现状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83%E8%A7%80%E5%AF%9F%E5%93%A1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國大會觀察員列表</t>
+    <t>联合国大会观察员列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1325,13 +1307,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>丹麥教育</t>
+    <t>丹麦教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>芬蘭教育</t>
+    <t>芬兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
@@ -1343,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>冰島教育</t>
+    <t>冰岛教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%95%99%E8%82%B2</t>
@@ -1355,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>荷蘭教育</t>
+    <t>荷兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E6%95%99%E8%82%B2</t>
@@ -1385,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1409,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>紐西蘭教育</t>
+    <t>纽西兰教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A%E6%95%99%E8%82%B2</t>
@@ -1421,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1439,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3202,7 +3184,7 @@
         <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -3228,10 +3210,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G50" t="n">
         <v>9</v>
@@ -3257,10 +3239,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3286,10 +3268,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3315,10 +3297,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3344,10 +3326,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3373,10 +3355,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3402,10 +3384,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3431,10 +3413,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3460,10 +3442,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>50</v>
@@ -3489,10 +3471,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3518,10 +3500,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3547,10 +3529,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3576,10 +3558,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3605,10 +3587,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3663,10 +3645,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3692,10 +3674,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3721,10 +3703,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3750,10 +3732,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3779,10 +3761,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3808,10 +3790,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3837,10 +3819,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3866,10 +3848,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3895,10 +3877,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3924,10 +3906,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3953,10 +3935,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3982,10 +3964,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4011,10 +3993,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4040,10 +4022,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4069,10 +4051,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4098,10 +4080,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4127,10 +4109,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4156,10 +4138,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4185,10 +4167,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4214,10 +4196,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4243,10 +4225,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4272,10 +4254,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4301,10 +4283,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4330,10 +4312,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4359,10 +4341,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4388,10 +4370,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4417,10 +4399,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4446,10 +4428,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4475,10 +4457,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4504,10 +4486,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4533,10 +4515,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4562,10 +4544,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4591,10 +4573,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4620,10 +4602,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4649,10 +4631,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4678,10 +4660,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4707,10 +4689,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G101" t="n">
         <v>122</v>
@@ -4736,10 +4718,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4765,10 +4747,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4794,10 +4776,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -4823,10 +4805,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4852,10 +4834,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4881,10 +4863,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4910,10 +4892,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -4939,10 +4921,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4968,10 +4950,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4997,10 +4979,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5026,10 +5008,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5055,10 +5037,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5084,10 +5066,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5113,10 +5095,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5142,10 +5124,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5171,10 +5153,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5200,10 +5182,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5229,10 +5211,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5258,10 +5240,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -5345,10 +5327,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5374,10 +5356,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5403,10 +5385,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5432,10 +5414,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5461,10 +5443,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5490,10 +5472,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5548,10 +5530,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5577,10 +5559,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5606,10 +5588,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5635,10 +5617,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5664,10 +5646,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5693,10 +5675,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5722,10 +5704,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5751,10 +5733,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5780,10 +5762,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5809,10 +5791,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5838,10 +5820,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5867,10 +5849,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5896,10 +5878,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5925,10 +5907,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5954,10 +5936,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5983,10 +5965,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6012,10 +5994,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6041,10 +6023,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6070,10 +6052,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6099,10 +6081,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6128,10 +6110,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6157,10 +6139,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F151" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6186,10 +6168,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6215,10 +6197,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6244,10 +6226,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6273,10 +6255,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F155" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6302,10 +6284,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6331,10 +6313,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6360,10 +6342,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6389,10 +6371,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6418,10 +6400,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6447,10 +6429,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6476,10 +6458,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6505,10 +6487,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6534,10 +6516,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6563,10 +6545,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F165" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6592,10 +6574,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6621,10 +6603,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F167" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6650,10 +6632,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6679,10 +6661,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6708,10 +6690,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F170" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6737,10 +6719,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6766,10 +6748,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F172" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6795,10 +6777,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6824,10 +6806,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6853,10 +6835,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6882,10 +6864,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F176" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6911,10 +6893,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F177" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6940,10 +6922,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -6969,10 +6951,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F179" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6998,10 +6980,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F180" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7027,10 +7009,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7056,10 +7038,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F182" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7085,10 +7067,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F183" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7114,10 +7096,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F184" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7143,10 +7125,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F185" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7172,10 +7154,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F186" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7201,10 +7183,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F187" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7230,10 +7212,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F188" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7259,10 +7241,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F189" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7288,10 +7270,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F190" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7317,10 +7299,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F191" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -7346,10 +7328,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F192" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7375,10 +7357,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F193" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7404,10 +7386,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F194" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7433,10 +7415,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F195" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7462,10 +7444,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F196" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7491,10 +7473,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F197" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G197" t="n">
         <v>10</v>
@@ -7520,10 +7502,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F198" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -7549,10 +7531,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F199" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G199" t="n">
         <v>7</v>
@@ -7578,10 +7560,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F200" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G200" t="n">
         <v>6</v>
@@ -7607,10 +7589,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F201" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7636,10 +7618,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F202" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G202" t="n">
         <v>5</v>
@@ -7665,10 +7647,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F203" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7694,10 +7676,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F204" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7723,10 +7705,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F205" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7752,10 +7734,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F206" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7781,10 +7763,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F207" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7810,10 +7792,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F208" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -7839,10 +7821,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F209" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7868,10 +7850,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F210" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -7897,10 +7879,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F211" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7926,10 +7908,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F212" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7955,10 +7937,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F213" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7984,10 +7966,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F214" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8013,10 +7995,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F215" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8042,10 +8024,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F216" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8071,10 +8053,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F217" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8100,10 +8082,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8129,10 +8111,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F219" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8158,10 +8140,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F220" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8187,10 +8169,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F221" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8216,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F222" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8245,10 +8227,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F223" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8274,10 +8256,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F224" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8303,10 +8285,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F225" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8332,10 +8314,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F226" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8361,10 +8343,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F227" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8390,10 +8372,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F228" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8419,10 +8401,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F229" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8448,10 +8430,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F230" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8477,10 +8459,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F231" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8506,10 +8488,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F232" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8535,10 +8517,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F233" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8564,10 +8546,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F234" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8593,10 +8575,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F235" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8622,10 +8604,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F236" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8651,10 +8633,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F237" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8680,10 +8662,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F238" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8709,10 +8691,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F239" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8738,10 +8720,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F240" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8767,10 +8749,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F241" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8796,10 +8778,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F242" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8825,10 +8807,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F243" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8854,10 +8836,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F244" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8883,10 +8865,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F245" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8912,10 +8894,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F246" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8941,10 +8923,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F247" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8970,10 +8952,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F248" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -8999,10 +8981,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F249" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9028,10 +9010,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F250" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9057,10 +9039,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F251" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9086,10 +9068,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F252" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9115,10 +9097,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F253" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9144,10 +9126,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F254" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9173,10 +9155,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F255" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9202,10 +9184,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F256" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9231,10 +9213,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F257" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9260,10 +9242,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F258" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9289,10 +9271,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F259" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>

--- a/xlsx/学校_intext.xlsx
+++ b/xlsx/学校_intext.xlsx
@@ -29,7 +29,7 @@
     <t>臺北市</t>
   </si>
   <si>
-    <t>政策_政策_政治_学校</t>
+    <t>体育运动_体育运动_体育_学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E5%B1%B1%E5%8D%80_(%E8%87%BA%E7%81%A3)</t>
